--- a/public/Excel/types.xlsx
+++ b/public/Excel/types.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VueJs\ffafafa\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0990AB41-47AF-44DA-9739-B7C51D0F69C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9708A8-7E32-489C-8B8E-D9A009652BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,33 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>2021-09-26T21:10:47.000000Z</t>
+    <t>Dâu Tây</t>
   </si>
   <si>
-    <t>danhha2</t>
+    <t>Nho Mỹ</t>
   </si>
   <si>
-    <t>danhha3</t>
+    <t>Chuối Sấy</t>
   </si>
   <si>
-    <t>danhha4</t>
+    <t>Táo Sấy</t>
   </si>
   <si>
-    <t>danhha5</t>
-  </si>
-  <si>
-    <t>STTT</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
+    <t>Mơ Sấy</t>
   </si>
 </sst>
 </file>
@@ -397,82 +385,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/Excel/types.xlsx
+++ b/public/Excel/types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VueJs\ffafafa\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9708A8-7E32-489C-8B8E-D9A009652BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25D42F-DA19-4B3B-93DB-B41894840EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Dâu Tây</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Mơ Sấy</t>
+  </si>
+  <si>
+    <t>Khoai Sấy</t>
+  </si>
+  <si>
+    <t>Mít Sấy</t>
+  </si>
+  <si>
+    <t>Sung Sấy</t>
+  </si>
+  <si>
+    <t>Đào Sấy</t>
+  </si>
+  <si>
+    <t>Lê Sấy</t>
+  </si>
+  <si>
+    <t>Mận Sấy</t>
   </si>
 </sst>
 </file>
@@ -385,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,6 +451,54 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
